--- a/myth/quiz/xlsx/garry_potter.xlsx
+++ b/myth/quiz/xlsx/garry_potter.xlsx
@@ -404,9 +404,6 @@
     <t>Живоглот — питомец Гермионы, полужмыр</t>
   </si>
   <si>
-    <t>Как называются оживлённые с помощью заклинания (или заклинаний) тела умерших, действующих по велению волшебника, их создавшего?</t>
-  </si>
-  <si>
     <t>Инферналы</t>
   </si>
   <si>
@@ -488,12 +485,6 @@
     <t>gp_nuchl.webp</t>
   </si>
   <si>
-    <t>t_lupin</t>
-  </si>
-  <si>
-    <t>t_animag</t>
-  </si>
-  <si>
     <t>Гриффон</t>
   </si>
   <si>
@@ -551,9 +542,6 @@
     <t>Дварф</t>
   </si>
   <si>
-    <t>Как звали великана, единоутробный брат полувеликана Рубеуса Хагрида?</t>
-  </si>
-  <si>
     <t>Грохх</t>
   </si>
   <si>
@@ -681,6 +669,18 @@
   </si>
   <si>
     <t>Корнелиус Фадж</t>
+  </si>
+  <si>
+    <t>t_lupin.webp</t>
+  </si>
+  <si>
+    <t>t_animag.webp</t>
+  </si>
+  <si>
+    <t>Как звали великана, единоутробного брата полувеликана Рубеуса Хагрида?</t>
+  </si>
+  <si>
+    <t>Как называются оживлённые с помощью заклинания тела умерших, действующих по велению волшебника, их создавшего?</t>
   </si>
 </sst>
 </file>
@@ -1041,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,22 +1125,22 @@
         <v>17</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>91</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="L2" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -1165,13 +1165,13 @@
         <v>8</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>0</v>
@@ -1198,16 +1198,16 @@
         <v>17</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>0</v>
@@ -1243,10 +1243,10 @@
         <v>125</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -1264,7 +1264,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>71</v>
@@ -1276,16 +1276,16 @@
         <v>73</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -1311,16 +1311,16 @@
         <v>15</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -1344,16 +1344,16 @@
         <v>29</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -1377,16 +1377,16 @@
         <v>29</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="I9" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -1410,13 +1410,13 @@
         <v>34</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>65</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>15</v>
@@ -1443,13 +1443,13 @@
         <v>37</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>73</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>0</v>
@@ -1476,19 +1476,19 @@
         <v>40</v>
       </c>
       <c r="F12" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1503,10 +1503,10 @@
         <v>70</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>44</v>
@@ -1536,7 +1536,7 @@
         <v>95</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1556,16 +1556,16 @@
         <v>51</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1598,7 +1598,7 @@
         <v>59</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1649,10 +1649,10 @@
         <v>68</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>67</v>
@@ -1661,13 +1661,13 @@
         <v>73</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -1685,7 +1685,7 @@
         <v>31</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>77</v>
@@ -1715,28 +1715,28 @@
         <v>74</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>75</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G19" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>72</v>
@@ -1751,13 +1751,13 @@
         <v>84</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>83</v>
@@ -1766,13 +1766,13 @@
         <v>85</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H20" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -1784,34 +1784,34 @@
         <v>86</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>85</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>67</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -1828,7 +1828,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>88</v>
@@ -1840,10 +1840,10 @@
         <v>51</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -1861,19 +1861,19 @@
         <v>31</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>91</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>65</v>
@@ -1894,22 +1894,22 @@
         <v>31</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>91</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -1927,31 +1927,31 @@
         <v>31</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>97</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -2041,25 +2041,25 @@
         <v>31</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>155</v>
+        <v>216</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>118</v>
       </c>
       <c r="F28" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="J28" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -2075,22 +2075,22 @@
         <v>31</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>156</v>
+        <v>217</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>120</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -2102,22 +2102,22 @@
         <v>121</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>122</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>65</v>
@@ -2132,31 +2132,31 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="F31" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -2165,34 +2165,34 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="F32" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="I32" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -2201,19 +2201,19 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>17</v>
@@ -2222,7 +2222,7 @@
         <v>65</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>15</v>
@@ -2234,34 +2234,34 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="F34" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="I34" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="J34" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -2270,10 +2270,10 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>31</v>
@@ -2282,27 +2282,27 @@
         <v>31</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F35" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="H35" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>31</v>
@@ -2311,7 +2311,7 @@
         <v>31</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>97</v>
@@ -2320,18 +2320,18 @@
         <v>91</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B37" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>31</v>
@@ -2340,13 +2340,13 @@
         <v>31</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>0</v>
@@ -2355,10 +2355,10 @@
         <v>91</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/myth/quiz/xlsx/garry_potter.xlsx
+++ b/myth/quiz/xlsx/garry_potter.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SvyTo\PycharmProjects\amaranth64.github.io\myth\quiz\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="135" windowWidth="28755" windowHeight="12090"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="221">
   <si>
     <t>Химера</t>
   </si>
@@ -53,27 +48,18 @@
     <t>Какое имя дали этому существу из вселенной Гарри Поттера?</t>
   </si>
   <si>
-    <t>gp_gippogrif.webp</t>
-  </si>
-  <si>
     <t>Гиппогриф</t>
   </si>
   <si>
     <t>Гиппогриф (англ. Hippogriff) — довольно необычное волшебное животное. Туловище, задние ноги и хвост коня, передние лапы, крылья и голова — орлиные; сильный стального цвета клюв и огромные блестящие, как апельсины, глаза.</t>
   </si>
   <si>
-    <t>gp_vasilisk.webp</t>
-  </si>
-  <si>
     <t>Василиск (от греч. βασιλίσκος, «базилискос» — царёк; англ. Basilisk) — огромный змей, известный также как «король змей», живущий не одну сотню лет. Очень сильное магическое животное.</t>
   </si>
   <si>
     <t>Веретенница</t>
   </si>
   <si>
-    <t>gp_grindilou.webp</t>
-  </si>
-  <si>
     <t>Гриндилоу</t>
   </si>
   <si>
@@ -89,9 +75,6 @@
     <t>Гриндилоу, или загрыбаст — это водяная нечисть из легенд маглов английского Йоркшира, болотно-зелёного цвета чудище с острыми рожками и длинными костлявыми пальцами. Победить гриндилоу можно, сломав ему пальцы (наиболее уязвимое место).</t>
   </si>
   <si>
-    <t>Какок животное было у Гермионы Грейнджер?</t>
-  </si>
-  <si>
     <t>Какое название носило дерево около Хогвартса, прославившееся своими яростными ударами ветвей?</t>
   </si>
   <si>
@@ -107,9 +90,6 @@
     <t>Горный тролль (англ. Mountain Troll) — подвид тролля, который обитает в горах, как ясно из названия. Один или несколько троллей живут в горах вблизи Хогвартса. Тролль — грозное существо, высотой в двенадцать футов и весом более тонны. Известные своими одинаково большими силой и тупостью, тролли часто жестоки и непредсказуемы.</t>
   </si>
   <si>
-    <t>Кто стал причиной переполоха в женском туалете в Хогвартсе в первой части истории о Гарри Поттере?</t>
-  </si>
-  <si>
     <t>Горный тролль</t>
   </si>
   <si>
@@ -140,15 +120,9 @@
     <t>Среди многочисленных питомцев магозоолога Ньюта Саламандера была демимаска по имени Дугал</t>
   </si>
   <si>
-    <t>Один из вопросов Гарри Поттеру на экзамене по "Уходу за магическими существами" был "Как отличить нарла от ежа?". Как?</t>
-  </si>
-  <si>
     <t>Отказывается пить молоко</t>
   </si>
   <si>
-    <t>Нарлы отказываются пить молоко: думают, что их могут отравить</t>
-  </si>
-  <si>
     <t>gp_narl.webp</t>
   </si>
   <si>
@@ -173,9 +147,6 @@
     <t>Этонский крылатый</t>
   </si>
   <si>
-    <t>Как называется маленькое зеленое существо, похожее на веточку, с двумя листочками на голове?</t>
-  </si>
-  <si>
     <t>Лукотрус</t>
   </si>
   <si>
@@ -209,9 +180,6 @@
     <t>Румынский длиннорог</t>
   </si>
   <si>
-    <t>Как называется маленькая ящерица, живущая в огне и питающаяся пламенем</t>
-  </si>
-  <si>
     <t>Саламандра</t>
   </si>
   <si>
@@ -245,9 +213,6 @@
     <t>Фвупер</t>
   </si>
   <si>
-    <t>Как называется небольшой зверек, похожий на кошку с пёстрым или пятнистым мехом, несоразмерно крупными ушами и львиным хвостом?</t>
-  </si>
-  <si>
     <t>Жмыр</t>
   </si>
   <si>
@@ -284,18 +249,12 @@
     <t>Как звали огромного акромантула из Запретного леса?</t>
   </si>
   <si>
-    <t>Как называется мохнатый длинноносый чёрный зверёк с плоскими как лопаты передними лапами, живущий в норах и обожающий всё блестящее?</t>
-  </si>
-  <si>
     <t>Нюхль</t>
   </si>
   <si>
     <t>Нюхлер — животное, покрытое чёрным пушистым мехом. Передние и задние конечности ничем особо не отличаются между собой, они имеют острые когти и почти незаметные перепонки между пальцами</t>
   </si>
   <si>
-    <t>Как называются существа, которых может видеть только человек, познавший смерть?</t>
-  </si>
-  <si>
     <t>Фестрал</t>
   </si>
   <si>
@@ -311,18 +270,12 @@
     <t>Перуанский змеезуб</t>
   </si>
   <si>
-    <t>Как называются слепые существа, которые питаются человеческими, преимущественно светлыми, эмоциями?</t>
-  </si>
-  <si>
     <t>Дементор</t>
   </si>
   <si>
     <t>Дементоры — слепые существа, которые питаются человеческими, преимущественно светлыми, эмоциями. В особых случаях, если предоставляется такая возможность, дементор высасывает душу человека, примыкая ко рту жертвы (отсюда возникло название «поцелуй дементора»).</t>
   </si>
   <si>
-    <t>Кто является автором книги "Братья по крови: моя жизнь среди вампиров" во вселенной Гарри Поттера?</t>
-  </si>
-  <si>
     <t>Элдред Уорпл (англ. Eldred Worple) — волшебник, автор книги «Братья по крови: моя жизнь среди вампиров», один из любимых студентов Горация Слизнорта</t>
   </si>
   <si>
@@ -344,9 +297,6 @@
     <t>Геллерт Грин-де-Вальд</t>
   </si>
   <si>
-    <t>Как зовут вампира, которого пригласил Слизнорт на рождественскую вечеринку, в "Гарри Поттер: Принц-полукровка"?</t>
-  </si>
-  <si>
     <t>Сангвини (англ. Sanguini) — вампир, которого Слизнорт пригласил на рождественскую вечеринку Клуба Слизней в 1996 году</t>
   </si>
   <si>
@@ -380,9 +330,6 @@
     <t>Римус Люпин</t>
   </si>
   <si>
-    <t>Как называют волшебников во вселенной Гарри Поттера, которые могут принимать облик зверя по своему желанию?</t>
-  </si>
-  <si>
     <t>Анимаг</t>
   </si>
   <si>
@@ -431,9 +378,6 @@
     <t>Перуанский ядозуб</t>
   </si>
   <si>
-    <t>gp_piksi.webp</t>
-  </si>
-  <si>
     <t>Ростом до восьми дюймов, ярко-синего цвета, необыкновенно проказливы, обожают всевозможные зловредные шуточки и проделки. Умеют летать.</t>
   </si>
   <si>
@@ -680,14 +624,68 @@
     <t>Как звали великана, единоутробного брата полувеликана Рубеуса Хагрида?</t>
   </si>
   <si>
-    <t>Как называются оживлённые с помощью заклинания тела умерших, действующих по велению волшебника, их создавшего?</t>
+    <t>pic299</t>
+  </si>
+  <si>
+    <t>pic298</t>
+  </si>
+  <si>
+    <t>pic14</t>
+  </si>
+  <si>
+    <t>pic300</t>
+  </si>
+  <si>
+    <t>Как называется это существо?</t>
+  </si>
+  <si>
+    <t>Какой питомец был у Гермионы Грейнджер?</t>
+  </si>
+  <si>
+    <t>Как отличить нарла от ежа?</t>
+  </si>
+  <si>
+    <t>Нарлы отказываются пить молоко: думают, что их могут отравить (Вопрос на экзамене по "Уходу за магическими существами")</t>
+  </si>
+  <si>
+    <t>Как называются слепые существа, которые питаются светлыми человеческими эмоциями?</t>
+  </si>
+  <si>
+    <t>Кто автор книги "Братья по крови: моя жизнь среди вампиров" во вселенной Гарри Поттера?</t>
+  </si>
+  <si>
+    <t>Как зовут вампира, которого пригласил Слизнорт на рождественскую вечеринку в "Гарри Поттер: Принц-полукровка"?</t>
+  </si>
+  <si>
+    <t>Как называют волшебников, которые могут принимать облик зверя по своему желанию?</t>
+  </si>
+  <si>
+    <t>Как называются оживлённые с помощью заклинания тела умерших, действующие по велению волшебника, их создавшего?</t>
+  </si>
+  <si>
+    <t>Этих существ может видеть только человек, познавший смерть</t>
+  </si>
+  <si>
+    <t>Маленькое зеленое существо, похожее на веточку, с двумя листочками на голове?</t>
+  </si>
+  <si>
+    <t>Маленькая ящерица, живущая в огне и питающаяся пламенем</t>
+  </si>
+  <si>
+    <t>Мохнатый длинноносый зверёк с плоскими как лопаты передними лапами, живущий в норах и обожающий всё блестящее?</t>
+  </si>
+  <si>
+    <t>Небольшой зверек, похожий на кошку с пёстрым или пятнистым мехом, несоразмерно крупными ушами и львиным хвостом?</t>
+  </si>
+  <si>
+    <t>Кто стал причиной переполоха в женском туалете в Хогвартсе, кого впустил профессор Квирелл?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -706,12 +704,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -726,13 +730,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -795,7 +805,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -827,10 +837,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -862,7 +871,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1038,14 +1046,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="140.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
@@ -1061,7 +1069,7 @@
     <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1105,58 +1113,58 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>206</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:14">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>204</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>204</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>2</v>
@@ -1165,13 +1173,13 @@
         <v>8</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>0</v>
@@ -1181,33 +1189,33 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>206</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>203</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>203</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>0</v>
@@ -1217,239 +1225,239 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>203</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>203</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>207</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>23</v>
+    <row r="7" spans="1:14">
+      <c r="A7" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="H7" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>28</v>
+    <row r="8" spans="1:14">
+      <c r="A8" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>206</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:14">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>0</v>
@@ -1459,906 +1467,906 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="3" t="s">
-        <v>39</v>
+        <v>208</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>41</v>
+        <v>209</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="F14" s="3" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="3" t="s">
-        <v>62</v>
+        <v>217</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="I18" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>74</v>
+    <row r="19" spans="1:14">
+      <c r="A19" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="J19" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>84</v>
+    <row r="20" spans="1:14">
+      <c r="A20" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>85</v>
+        <v>132</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="G21" s="3" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="3" t="s">
-        <v>87</v>
+        <v>218</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="3" t="s">
-        <v>90</v>
+        <v>215</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="3" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="G24" s="3" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>96</v>
+    <row r="25" spans="1:14">
+      <c r="A25" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="3" t="s">
-        <v>99</v>
+        <v>211</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="3" t="s">
-        <v>107</v>
+        <v>212</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="3" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="3" t="s">
-        <v>119</v>
+        <v>213</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="3" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>142</v>
+        <v>126</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" s="3" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="G32" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J32" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>131</v>
+    <row r="33" spans="1:14">
+      <c r="A33" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" s="3" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>136</v>
+        <v>202</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" s="3" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="3" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="3" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="B37" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2368,24 +2376,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/myth/quiz/xlsx/garry_potter.xlsx
+++ b/myth/quiz/xlsx/garry_potter.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="261">
   <si>
     <t>Химера</t>
   </si>
@@ -45,18 +45,12 @@
     <t>Гарпия</t>
   </si>
   <si>
-    <t>Какое имя дали этому существу из вселенной Гарри Поттера?</t>
-  </si>
-  <si>
     <t>Гиппогриф</t>
   </si>
   <si>
     <t>Гиппогриф (англ. Hippogriff) — довольно необычное волшебное животное. Туловище, задние ноги и хвост коня, передние лапы, крылья и голова — орлиные; сильный стального цвета клюв и огромные блестящие, как апельсины, глаза.</t>
   </si>
   <si>
-    <t>Василиск (от греч. βασιλίσκος, «базилискос» — царёк; англ. Basilisk) — огромный змей, известный также как «король змей», живущий не одну сотню лет. Очень сильное магическое животное.</t>
-  </si>
-  <si>
     <t>Веретенница</t>
   </si>
   <si>
@@ -75,21 +69,6 @@
     <t>Гриндилоу, или загрыбаст — это водяная нечисть из легенд маглов английского Йоркшира, болотно-зелёного цвета чудище с острыми рожками и длинными костлявыми пальцами. Победить гриндилоу можно, сломав ему пальцы (наиболее уязвимое место).</t>
   </si>
   <si>
-    <t>Какое название носило дерево около Хогвартса, прославившееся своими яростными ударами ветвей?</t>
-  </si>
-  <si>
-    <t>Гремучая ива</t>
-  </si>
-  <si>
-    <t>Гремучая ива — дерево, посаженное в 1971 году на территории Хогвартса. Со слов профессора Снегга «является редчайшим экземпляром подвида плакучих ив». Начинает избивать ветвями любой предмет или живое существо, которое имело неосторожность попасть в «зону поражения».</t>
-  </si>
-  <si>
-    <t>gp_gremucha_iva.webp</t>
-  </si>
-  <si>
-    <t>Горный тролль (англ. Mountain Troll) — подвид тролля, который обитает в горах, как ясно из названия. Один или несколько троллей живут в горах вблизи Хогвартса. Тролль — грозное существо, высотой в двенадцать футов и весом более тонны. Известные своими одинаково большими силой и тупостью, тролли часто жестоки и непредсказуемы.</t>
-  </si>
-  <si>
     <t>Горный тролль</t>
   </si>
   <si>
@@ -102,24 +81,12 @@
     <t>gp_troll.webp</t>
   </si>
   <si>
-    <t>gp_demimaska.webp</t>
-  </si>
-  <si>
     <t>Демимаска</t>
   </si>
   <si>
-    <t>Демимаска — мирное травоядное животное, с виду похожее на худенькую обезьянку с большими печальными чёрными глазами, которые часто бывают не видны из-под чёлки.</t>
-  </si>
-  <si>
-    <t>Как звали демимаску Ньюта Саламандера?</t>
-  </si>
-  <si>
     <t>Дугал</t>
   </si>
   <si>
-    <t>Среди многочисленных питомцев магозоолога Ньюта Саламандера была демимаска по имени Дугал</t>
-  </si>
-  <si>
     <t>Отказывается пить молоко</t>
   </si>
   <si>
@@ -150,12 +117,6 @@
     <t>Лукотрус</t>
   </si>
   <si>
-    <t>gp_lukotrus.webp</t>
-  </si>
-  <si>
-    <t>Лукотрусы — хранители деревьев. Встречаются, в основном, в западной части Англии, в Южной Германии и в лесах Скандинавии. Обнаружить их чрезвычайно трудно, потому что лукотрусы — мелкие создания и внешне выглядят так, словно сделаны из прутиков и коры, с крошечными карими глазками.</t>
-  </si>
-  <si>
     <t>Гебридский чёрный</t>
   </si>
   <si>
@@ -198,9 +159,6 @@
     <t>Трёхголовая собака (англ. Three-headed dog) — очень редкое волшебное существо огромного размера. Родом оно из Греции. Имеет три головы</t>
   </si>
   <si>
-    <t>Саламандра — небольшая ящерица, живёт в огне и им питается. Шкура саламандры имеет ослепительно-белый цвет, однако может казаться синей или алой в зависимости от температуры пламени, в котором она рождается</t>
-  </si>
-  <si>
     <t>Венгерский хвосторог  — порода больших чёрных драконов, распространённых в Венгрии. Особо опасны из-за усеянного шипами хвоста, которым они действуют как ударным оружием. Поэтому к хвосторогам надо приближаться осторожно как спереди, так и сзади.</t>
   </si>
   <si>
@@ -213,42 +171,9 @@
     <t>Фвупер</t>
   </si>
   <si>
-    <t>Жмыр</t>
-  </si>
-  <si>
-    <t>Какого цвета Венгерский хвосторог?</t>
-  </si>
-  <si>
-    <t>Черный</t>
-  </si>
-  <si>
-    <t>Красный</t>
-  </si>
-  <si>
-    <t>Белый</t>
-  </si>
-  <si>
-    <t>Зелёный</t>
-  </si>
-  <si>
-    <t>Оранжевый</t>
-  </si>
-  <si>
-    <t>Синий</t>
-  </si>
-  <si>
-    <t>Акромантул</t>
-  </si>
-  <si>
-    <t>Как называется огромный ядовитый паук, способный говорить на человеческом языке?</t>
-  </si>
-  <si>
     <t>Арагог</t>
   </si>
   <si>
-    <t>Как звали огромного акромантула из Запретного леса?</t>
-  </si>
-  <si>
     <t>Нюхль</t>
   </si>
   <si>
@@ -276,30 +201,6 @@
     <t>Дементоры — слепые существа, которые питаются человеческими, преимущественно светлыми, эмоциями. В особых случаях, если предоставляется такая возможность, дементор высасывает душу человека, примыкая ко рту жертвы (отсюда возникло название «поцелуй дементора»).</t>
   </si>
   <si>
-    <t>Элдред Уорпл (англ. Eldred Worple) — волшебник, автор книги «Братья по крови: моя жизнь среди вампиров», один из любимых студентов Горация Слизнорта</t>
-  </si>
-  <si>
-    <t>Элдред Уорпл</t>
-  </si>
-  <si>
-    <t>Гораций Слизнорт</t>
-  </si>
-  <si>
-    <t>Кормак Маклагген</t>
-  </si>
-  <si>
-    <t>Руфус Скримджер</t>
-  </si>
-  <si>
-    <t>Северус Снегг</t>
-  </si>
-  <si>
-    <t>Геллерт Грин-де-Вальд</t>
-  </si>
-  <si>
-    <t>Сангвини (англ. Sanguini) — вампир, которого Слизнорт пригласил на рождественскую вечеринку Клуба Слизней в 1996 году</t>
-  </si>
-  <si>
     <t>Сангвини</t>
   </si>
   <si>
@@ -333,9 +234,6 @@
     <t>Анимаг</t>
   </si>
   <si>
-    <t>Волшебное растение, отличительной особенностью которого является корень, который выглядит, как маленький человечек</t>
-  </si>
-  <si>
     <t>Мандрагора</t>
   </si>
   <si>
@@ -348,9 +246,6 @@
     <t>Заставить бегать</t>
   </si>
   <si>
-    <t>Живоглот — питомец Гермионы, полужмыр</t>
-  </si>
-  <si>
     <t>Инферналы</t>
   </si>
   <si>
@@ -363,9 +258,6 @@
     <t>Полтергейст</t>
   </si>
   <si>
-    <t>Русский демон, едва с фут высотой, волосатым телом, но гладкой серой непропорционально огромной головой</t>
-  </si>
-  <si>
     <t>Подгребин</t>
   </si>
   <si>
@@ -381,21 +273,12 @@
     <t>Ростом до восьми дюймов, ярко-синего цвета, необыкновенно проказливы, обожают всевозможные зловредные шуточки и проделки. Умеют летать.</t>
   </si>
   <si>
-    <t>gp_pogrebin.webp</t>
-  </si>
-  <si>
-    <t>Погребин — демон, обитающий в России, высотой чуть более фута, с мохнатым туловищем и большой гладкой серой головой. Скорчившись, погребин становится похож на блестящий округлый камень.</t>
-  </si>
-  <si>
     <t>Пивз выглядит как маленький человечек в яркой одежде, он носит шляпу с бубенчиками и оранжевый галстук-бабочку. У него злобные чёрные глазки и широкий рот. В отличие от призраков, он не прозрачен и не бесплотен, но умеет летать и проходить сквозь стены</t>
   </si>
   <si>
     <t>gp_pivz.webp</t>
   </si>
   <si>
-    <t>gp_mangragora.webp</t>
-  </si>
-  <si>
     <t>Мандрагора — волшебное растение, отличительной особенностью которого является корень, который выглядит, как маленький человечек</t>
   </si>
   <si>
@@ -405,12 +288,6 @@
     <t>gp_kot.webp</t>
   </si>
   <si>
-    <t>gp_zhmar.webp</t>
-  </si>
-  <si>
-    <t>Жмыр — небольшой зверек, похожий на кошку с пёстрым, крапчатым или пятнистым мехом, несоразмерно крупными ушами и львиным хвостом</t>
-  </si>
-  <si>
     <t>Акромантул — огромный ядовитый паук, способный говорить на человеческом языке. Больше всего нам известно об Арагоге, который вместе со своей женой Мосаг основал род, живущий в окрестностях Хогвартса, в Запретном лесу.</t>
   </si>
   <si>
@@ -513,12 +390,6 @@
     <t>Боггарт</t>
   </si>
   <si>
-    <t>Существо, которое меняет свою форму в зависимости от того, чего или кого боится стоящий перед ним человек</t>
-  </si>
-  <si>
-    <t>Боггарт  — это разновидность привидений. Никто не знает, как он выглядит на самом деле, потому что боггарт меняет свою форму в зависимости от того, чего или кого боится стоящий перед ним человек</t>
-  </si>
-  <si>
     <t>Упырь</t>
   </si>
   <si>
@@ -573,18 +444,6 @@
     <t>Плюнуть в морду</t>
   </si>
   <si>
-    <t>Визжащая ива</t>
-  </si>
-  <si>
-    <t>Завывающая ива</t>
-  </si>
-  <si>
-    <t>Трескучая ива</t>
-  </si>
-  <si>
-    <t>Гремящая ива</t>
-  </si>
-  <si>
     <t>Ходит на задних лапах</t>
   </si>
   <si>
@@ -615,48 +474,24 @@
     <t>Корнелиус Фадж</t>
   </si>
   <si>
-    <t>t_lupin.webp</t>
-  </si>
-  <si>
-    <t>t_animag.webp</t>
-  </si>
-  <si>
-    <t>Как звали великана, единоутробного брата полувеликана Рубеуса Хагрида?</t>
-  </si>
-  <si>
     <t>pic299</t>
   </si>
   <si>
     <t>pic298</t>
   </si>
   <si>
-    <t>pic14</t>
-  </si>
-  <si>
     <t>pic300</t>
   </si>
   <si>
     <t>Как называется это существо?</t>
   </si>
   <si>
-    <t>Какой питомец был у Гермионы Грейнджер?</t>
-  </si>
-  <si>
     <t>Как отличить нарла от ежа?</t>
   </si>
   <si>
     <t>Нарлы отказываются пить молоко: думают, что их могут отравить (Вопрос на экзамене по "Уходу за магическими существами")</t>
   </si>
   <si>
-    <t>Как называются слепые существа, которые питаются светлыми человеческими эмоциями?</t>
-  </si>
-  <si>
-    <t>Кто автор книги "Братья по крови: моя жизнь среди вампиров" во вселенной Гарри Поттера?</t>
-  </si>
-  <si>
-    <t>Как зовут вампира, которого пригласил Слизнорт на рождественскую вечеринку в "Гарри Поттер: Принц-полукровка"?</t>
-  </si>
-  <si>
     <t>Как называют волшебников, которые могут принимать облик зверя по своему желанию?</t>
   </si>
   <si>
@@ -666,19 +501,304 @@
     <t>Этих существ может видеть только человек, познавший смерть</t>
   </si>
   <si>
-    <t>Маленькое зеленое существо, похожее на веточку, с двумя листочками на голове?</t>
-  </si>
-  <si>
     <t>Маленькая ящерица, живущая в огне и питающаяся пламенем</t>
   </si>
   <si>
     <t>Мохнатый длинноносый зверёк с плоскими как лопаты передними лапами, живущий в норах и обожающий всё блестящее?</t>
   </si>
   <si>
-    <t>Небольшой зверек, похожий на кошку с пёстрым или пятнистым мехом, несоразмерно крупными ушами и львиным хвостом?</t>
-  </si>
-  <si>
     <t>Кто стал причиной переполоха в женском туалете в Хогвартсе, кого впустил профессор Квирелл?</t>
+  </si>
+  <si>
+    <t>Существо, меняющее свою форму в зависимости от того, чего или кого боится стоящий перед ним человек</t>
+  </si>
+  <si>
+    <t>Боггарт - это разновидность привидений. Никто не знает, как он выглядит на самом деле, потому что боггарт меняет свою форму в зависимости от того, чего или кого боится стоящий перед ним человек</t>
+  </si>
+  <si>
+    <t>pic237</t>
+  </si>
+  <si>
+    <t>pic303</t>
+  </si>
+  <si>
+    <t>Как звали питомца Гермионы Грейнджер?</t>
+  </si>
+  <si>
+    <t>Живоглот — питомец Гермионы, наполовину кот, наполовину жмыр.</t>
+  </si>
+  <si>
+    <t>gp_kalmar.webp</t>
+  </si>
+  <si>
+    <t>gp_salamandra.webp</t>
+  </si>
+  <si>
+    <t>Саламандра — небольшая ящерица, живёт в огне и им питается. Цвет шкуры саламандры может быть разным - от ослепительно-белого до синего, в зависимости от температуры пламени, в котором она рождается</t>
+  </si>
+  <si>
+    <t>Как звали огромного паука-акромантула из Запретного леса?</t>
+  </si>
+  <si>
+    <t>gp_buzines.webp</t>
+  </si>
+  <si>
+    <t>gp_groxx.webp</t>
+  </si>
+  <si>
+    <t>Как звали великана, единоутробного брата Рубеуса Хагрида?</t>
+  </si>
+  <si>
+    <t>gp_groxx_dlg.webp</t>
+  </si>
+  <si>
+    <t>gp_infernal.webp</t>
+  </si>
+  <si>
+    <t>gp_lupin.webp</t>
+  </si>
+  <si>
+    <t>gp_animag.webp</t>
+  </si>
+  <si>
+    <t>pic152</t>
+  </si>
+  <si>
+    <t>Это растение помогает вернуть человеку, подвергшемуся заклятию, первоначальный облик, но его крик смертельно опасен</t>
+  </si>
+  <si>
+    <t>Темные сущности, охранники Азкабана, способные высосать всю надежду, радость и даже душу</t>
+  </si>
+  <si>
+    <t>Василиск — огромный змей, известный также как «король змей», живущий не одну сотню лет. Очень сильное магическое животное.</t>
+  </si>
+  <si>
+    <t>Змееподобное существо, способное убивать одним взглядом</t>
+  </si>
+  <si>
+    <t>gp_vasilisk.webp</t>
+  </si>
+  <si>
+    <t>Как зовут вампира, которого пригласил Слизнорт на рождественскую вечеринку?</t>
+  </si>
+  <si>
+    <t>gp_sangvini.webp</t>
+  </si>
+  <si>
+    <t>Сангвини (англ. Sanguini) — вампир, которого Слизнорт пригласил на рождественскую вечеринку Клуба Слизней в книге "Принц-полукровка"</t>
+  </si>
+  <si>
+    <t>Оборотень, член Ордена Феникса, профессор Защиты от Тёмных искусств в Хогвартсе. Стал оборотнем в пятилетнем возрасте.</t>
+  </si>
+  <si>
+    <t>Волшебник, который по своему желанию может превращаться в животное. Качество это не врождённое, ему можно научиться.</t>
+  </si>
+  <si>
+    <t>способна вернуть к жизни</t>
+  </si>
+  <si>
+    <t>Кровь единорога способна вернуть к жизни, даже если человек на волосок от гибели. Но испив эту кровь однажды, человек будет проклят на всю жизнь.</t>
+  </si>
+  <si>
+    <t>pic33</t>
+  </si>
+  <si>
+    <t>Каким магическим свойством обладает кровь единорога?</t>
+  </si>
+  <si>
+    <t>gp_edinorog.webp</t>
+  </si>
+  <si>
+    <t>Это растение живет в темноте, при нападении заворачивает жертву побегами и душит. Очень боится света.</t>
+  </si>
+  <si>
+    <t>Дьявольские силки</t>
+  </si>
+  <si>
+    <t>gp_silki.webp</t>
+  </si>
+  <si>
+    <t>Гоблины</t>
+  </si>
+  <si>
+    <t>Они производят все необходимые банковские операции, а также обеспечивают охрану банка и банковских сейфов.</t>
+  </si>
+  <si>
+    <t>gp_goblin.webp</t>
+  </si>
+  <si>
+    <t>Что за существа работали в банке "Гринготтс"?</t>
+  </si>
+  <si>
+    <t>Почти Безголовый Ник</t>
+  </si>
+  <si>
+    <t>Как звали призрак факультета Гриффиндор во время учёбы Гарри Потттера в Хогвартсе?</t>
+  </si>
+  <si>
+    <t>gp_nikolas.webp</t>
+  </si>
+  <si>
+    <t>Почти Безголовый Ник он получил из-за того, что его шея лишь частично прикреплена к голове лоскутом кожи.</t>
+  </si>
+  <si>
+    <t>Если они напали, нужно постараться как можно меньше дёргаться и уничтожить их заклинанием Люмос Солем.</t>
+  </si>
+  <si>
+    <t>В какое существо обращалась анимаг Минерва Макгонагалл?</t>
+  </si>
+  <si>
+    <t>gp_minerva.webp</t>
+  </si>
+  <si>
+    <t>Профессор и глава факультета Гриффиндор, зарегистрированный анимаг, может превращаться в домашнюю кошку.</t>
+  </si>
+  <si>
+    <t>Плакса Миртл</t>
+  </si>
+  <si>
+    <t>Как зовут призрак  девочки убитой Василиском и обитающей в женском туалете?</t>
+  </si>
+  <si>
+    <t>Призрак обитающий в женском туалете на третьем этаже школы «Хогвартс». Вечно унылая плачущая девочка небольшого роста и в очках с толстыми стёклами.</t>
+  </si>
+  <si>
+    <t>gp_mirtl.webp</t>
+  </si>
+  <si>
+    <t>Парселтанг</t>
+  </si>
+  <si>
+    <t>Как называется язык, на котором можно разговаривать со змеями?</t>
+  </si>
+  <si>
+    <t>Магический язык змей, владеющие им, способны разговаривать со змеями. Этим языком владели Салазар Слизерин, Волан-де-Морт и Гарри Поттер.</t>
+  </si>
+  <si>
+    <t>gp_pars.webp</t>
+  </si>
+  <si>
+    <t>gp_pars_dlg.webp</t>
+  </si>
+  <si>
+    <t>Гномы</t>
+  </si>
+  <si>
+    <t>Домовики</t>
+  </si>
+  <si>
+    <t>Привидения</t>
+  </si>
+  <si>
+    <t>Кентавры</t>
+  </si>
+  <si>
+    <t>Жмыры</t>
+  </si>
+  <si>
+    <t>Кошка</t>
+  </si>
+  <si>
+    <t>Волк</t>
+  </si>
+  <si>
+    <t>Феникс</t>
+  </si>
+  <si>
+    <t>Ласка</t>
+  </si>
+  <si>
+    <t>Крот</t>
+  </si>
+  <si>
+    <t>Летучая мышь</t>
+  </si>
+  <si>
+    <t>Ворон</t>
+  </si>
+  <si>
+    <t>Толстый Монах</t>
+  </si>
+  <si>
+    <t>Кровавый Барон</t>
+  </si>
+  <si>
+    <t>Серая дама</t>
+  </si>
+  <si>
+    <t>Чёрный рыцарь</t>
+  </si>
+  <si>
+    <t>Дункан Эш</t>
+  </si>
+  <si>
+    <t>Катберт Бинс</t>
+  </si>
+  <si>
+    <t>Елена Когтевран</t>
+  </si>
+  <si>
+    <t>Мрачная  монахиня</t>
+  </si>
+  <si>
+    <t>Плачущая вдова</t>
+  </si>
+  <si>
+    <t>смертельный яд</t>
+  </si>
+  <si>
+    <t>Какие существа готовили еду на кухне в Хогвартсе?</t>
+  </si>
+  <si>
+    <t>Домовые эльфы</t>
+  </si>
+  <si>
+    <t>gp_domovik.webp</t>
+  </si>
+  <si>
+    <t>Домашние эльфы или домовики — человекообразные магические существа очень небольшого роста, обычно лысые (даже женщины), с огромными ушами, напоминающими крылья летучих мышей.</t>
+  </si>
+  <si>
+    <t>Демимаски</t>
+  </si>
+  <si>
+    <t>Лукотрусы</t>
+  </si>
+  <si>
+    <t>Грабар</t>
+  </si>
+  <si>
+    <t>Пракрит</t>
+  </si>
+  <si>
+    <t>Синдарин</t>
+  </si>
+  <si>
+    <t>Квендерин</t>
+  </si>
+  <si>
+    <t>Язык Салазара</t>
+  </si>
+  <si>
+    <t>повышает силу</t>
+  </si>
+  <si>
+    <t>перемещает во времени</t>
+  </si>
+  <si>
+    <t>открывает истину</t>
+  </si>
+  <si>
+    <t>Прыгучая луковица</t>
+  </si>
+  <si>
+    <t>Дрожащая трясучка</t>
+  </si>
+  <si>
+    <t>Паффопод</t>
+  </si>
+  <si>
+    <t>Бубонтюбер</t>
   </si>
 </sst>
 </file>
@@ -713,7 +833,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,7 +850,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -740,9 +860,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1047,16 +1164,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="140.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="119.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.140625" style="3" bestFit="1" customWidth="1"/>
@@ -1114,57 +1232,57 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="3" t="s">
-        <v>206</v>
+      <c r="A2" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>205</v>
+        <v>154</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>205</v>
+        <v>154</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>185</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>2</v>
@@ -1173,13 +1291,13 @@
         <v>8</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>0</v>
@@ -1190,32 +1308,32 @@
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="3" t="s">
-        <v>206</v>
+      <c r="A4" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>0</v>
@@ -1226,35 +1344,35 @@
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -1262,38 +1380,38 @@
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="3" t="s">
-        <v>207</v>
+      <c r="A6" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -1301,34 +1419,31 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="H7" t="s">
-        <v>186</v>
+        <v>115</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -1336,32 +1451,35 @@
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="5" t="s">
-        <v>220</v>
+      <c r="A8" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>177</v>
+        <v>145</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -1369,65 +1487,76 @@
       <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="3" t="s">
-        <v>206</v>
+      <c r="A9" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="H9" s="3" t="s">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="4" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>169</v>
+        <v>36</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -1435,32 +1564,35 @@
       <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="3" t="s">
-        <v>31</v>
+      <c r="A11" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -1468,35 +1600,32 @@
       <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="3" t="s">
-        <v>208</v>
+      <c r="A12" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>209</v>
+        <v>46</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>189</v>
+        <v>50</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>190</v>
+        <v>104</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>191</v>
+        <v>111</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>193</v>
+        <v>112</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1504,76 +1633,70 @@
       <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="3" t="s">
-        <v>36</v>
+      <c r="A13" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M13" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>159</v>
+        <v>32</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1581,32 +1704,32 @@
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="3" t="s">
-        <v>52</v>
+      <c r="A15" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>181</v>
+        <v>43</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1614,35 +1737,32 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="3" t="s">
-        <v>217</v>
+      <c r="A16" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -1650,104 +1770,115 @@
       <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="3" t="s">
-        <v>57</v>
+      <c r="A17" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="F17" s="3" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="4" t="s">
-        <v>219</v>
+        <v>69</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>129</v>
+        <v>190</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F19" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -1756,31 +1887,31 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="4" t="s">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>75</v>
+        <v>180</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>171</v>
+        <v>54</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>177</v>
+        <v>97</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -1788,70 +1919,65 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="3" t="s">
-        <v>76</v>
+      <c r="A21" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>156</v>
+        <v>43</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>177</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="3" t="s">
-        <v>218</v>
+      <c r="A22" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -1859,32 +1985,35 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="3" t="s">
-        <v>215</v>
+      <c r="A23" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>79</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>56</v>
+        <v>129</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -1892,32 +2021,35 @@
       <c r="N23" s="3"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="F24" s="3" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>160</v>
+        <v>130</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -1926,447 +2058,360 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B30" t="s">
+        <v>201</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B31" t="s">
+        <v>207</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B32" t="s">
+        <v>211</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="3" t="s">
+      <c r="E32" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B33" t="s">
+        <v>214</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="3" t="s">
+      <c r="F33" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B34" t="s">
+        <v>218</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B35" t="s">
+        <v>246</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="G35" s="3" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B37" t="s">
-        <v>166</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>138</v>
+        <v>221</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/myth/quiz/xlsx/garry_potter.xlsx
+++ b/myth/quiz/xlsx/garry_potter.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="258">
   <si>
     <t>Химера</t>
   </si>
@@ -162,12 +162,6 @@
     <t>Венгерский хвосторог  — порода больших чёрных драконов, распространённых в Венгрии. Особо опасны из-за усеянного шипами хвоста, которым они действуют как ударным оружием. Поэтому к хвосторогам надо приближаться осторожно как спереди, так и сзади.</t>
   </si>
   <si>
-    <t>Полужмыр</t>
-  </si>
-  <si>
-    <t>Шишуга</t>
-  </si>
-  <si>
     <t>Фвупер</t>
   </si>
   <si>
@@ -324,21 +318,9 @@
     <t>Тенебрусы</t>
   </si>
   <si>
-    <t>Вампус</t>
-  </si>
-  <si>
-    <t>Зуву</t>
-  </si>
-  <si>
     <t>Снежок</t>
   </si>
   <si>
-    <t>Матагот</t>
-  </si>
-  <si>
-    <t>Лейс</t>
-  </si>
-  <si>
     <t>Мосаг</t>
   </si>
   <si>
@@ -799,6 +781,15 @@
   </si>
   <si>
     <t>Бубонтюбер</t>
+  </si>
+  <si>
+    <t>Живоглот</t>
+  </si>
+  <si>
+    <t>Гермес</t>
+  </si>
+  <si>
+    <t>Клювокрыл</t>
   </si>
 </sst>
 </file>
@@ -824,7 +815,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -834,6 +825,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,7 +847,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -860,6 +857,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1166,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="A9:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1233,16 +1233,16 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>9</v>
@@ -1251,38 +1251,38 @@
         <v>12</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="L2" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>2</v>
@@ -1291,13 +1291,13 @@
         <v>8</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>0</v>
@@ -1309,31 +1309,31 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>0</v>
@@ -1351,28 +1351,28 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="I5" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -1381,37 +1381,37 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="H6" s="3" t="s">
-        <v>102</v>
+        <v>257</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>105</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>18</v>
@@ -1434,16 +1434,16 @@
         <v>17</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -1452,10 +1452,10 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>24</v>
@@ -1467,19 +1467,19 @@
         <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -1497,7 +1497,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>26</v>
@@ -1524,10 +1524,10 @@
         <v>40</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1541,7 +1541,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>34</v>
@@ -1556,7 +1556,7 @@
         <v>38</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -1565,16 +1565,16 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>41</v>
@@ -1607,25 +1607,25 @@
         <v>46</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>45</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1634,37 +1634,37 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>45</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -1672,19 +1672,19 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>22</v>
@@ -1693,10 +1693,10 @@
         <v>32</v>
       </c>
       <c r="H14" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1705,28 +1705,28 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="H15" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>43</v>
@@ -1738,31 +1738,31 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -1771,114 +1771,114 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -1887,31 +1887,31 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -1920,25 +1920,25 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>43</v>
@@ -1953,31 +1953,31 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="H22" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -1986,34 +1986,34 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H23" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -2022,34 +2022,34 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I24" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -2058,360 +2058,360 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B27" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E27" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>32</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B30" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B31" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>212</v>
-      </c>
       <c r="I31" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="4" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B32" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>210</v>
+      <c r="D32" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K32" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B33" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="4" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B34" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="4" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B35" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/myth/quiz/xlsx/garry_potter.xlsx
+++ b/myth/quiz/xlsx/garry_potter.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="299">
   <si>
     <t>Химера</t>
   </si>
@@ -576,9 +576,6 @@
     <t>Волшебник, который по своему желанию может превращаться в животное. Качество это не врождённое, ему можно научиться.</t>
   </si>
   <si>
-    <t>способна вернуть к жизни</t>
-  </si>
-  <si>
     <t>Кровь единорога способна вернуть к жизни, даже если человек на волосок от гибели. Но испив эту кровь однажды, человек будет проклят на всю жизнь.</t>
   </si>
   <si>
@@ -790,6 +787,132 @@
   </si>
   <si>
     <t>Клювокрыл</t>
+  </si>
+  <si>
+    <t>Какими чудесными свойствами обладают слезы феникса?</t>
+  </si>
+  <si>
+    <t>Как пройти мимо трехголового пса Хагрида – Пушка?</t>
+  </si>
+  <si>
+    <t>Что нужно сделать, чтобы понять язык русалок?</t>
+  </si>
+  <si>
+    <t>Как освободить домового эльфа?</t>
+  </si>
+  <si>
+    <t>Слёзы феникса - способны исцелять раны и ядовитые укусы, даже таких существ, как василиски. По воздействию схожи с кровью единорога, способны вернуть к жизни даже тяжелобольного человека</t>
+  </si>
+  <si>
+    <t>Исцеляют раны</t>
+  </si>
+  <si>
+    <t>Использовать музыку</t>
+  </si>
+  <si>
+    <t>Пёс засыпает при любой мелодии, даже плохо сыгранной</t>
+  </si>
+  <si>
+    <t>Язык русалок (мермишский) специально адаптирован для использования под водой, где для людей он звучит как английский</t>
+  </si>
+  <si>
+    <t>Слушать под водой</t>
+  </si>
+  <si>
+    <t>Подарить одежду</t>
+  </si>
+  <si>
+    <t>Если какой-то предмет одежды будет подарен, эльф станет свободным</t>
+  </si>
+  <si>
+    <t>gp_dobby.webp</t>
+  </si>
+  <si>
+    <t>gp_nosok.webp</t>
+  </si>
+  <si>
+    <t>gp_arfa.webp</t>
+  </si>
+  <si>
+    <t>gp_rusalyaz.webp</t>
+  </si>
+  <si>
+    <t>gp_rusalka.webp</t>
+  </si>
+  <si>
+    <t>gp_phenix.webp</t>
+  </si>
+  <si>
+    <t>gp_slezaphenix.webp</t>
+  </si>
+  <si>
+    <t>Возвращают память</t>
+  </si>
+  <si>
+    <t>Любовный эликсир</t>
+  </si>
+  <si>
+    <t>Приносят удачу</t>
+  </si>
+  <si>
+    <t>Хорошее снотворное</t>
+  </si>
+  <si>
+    <t>может вернуть к жизни</t>
+  </si>
+  <si>
+    <t>Делают умнее</t>
+  </si>
+  <si>
+    <t>Повышают силу</t>
+  </si>
+  <si>
+    <t>Погладить</t>
+  </si>
+  <si>
+    <t>Запустить кошку</t>
+  </si>
+  <si>
+    <t>Бросить палку</t>
+  </si>
+  <si>
+    <t>Тихо прокрасться</t>
+  </si>
+  <si>
+    <t>Погладить по голове</t>
+  </si>
+  <si>
+    <t>Отвесить оплеуху</t>
+  </si>
+  <si>
+    <t>Отправить на кухню</t>
+  </si>
+  <si>
+    <t>Одеть наушники</t>
+  </si>
+  <si>
+    <t>Выпить пиво</t>
+  </si>
+  <si>
+    <t>Съесть жабросли</t>
+  </si>
+  <si>
+    <t>Трансфигурировать</t>
+  </si>
+  <si>
+    <t>Одеть доспехи</t>
+  </si>
+  <si>
+    <t>Запустить приложение</t>
+  </si>
+  <si>
+    <t>Использовать жесты</t>
+  </si>
+  <si>
+    <t>Заплатить деньги</t>
+  </si>
+  <si>
+    <t>Отправить учиться</t>
   </si>
 </sst>
 </file>
@@ -1164,15 +1287,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="A9:I17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="119.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" style="3" bestFit="1" customWidth="1"/>
@@ -1393,16 +1516,16 @@
         <v>87</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>48</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>106</v>
@@ -2151,48 +2274,48 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="E28" s="3" t="s">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G28" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>70</v>
@@ -2201,217 +2324,351 @@
         <v>32</v>
       </c>
       <c r="H29" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F30" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F31" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="H31" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="I31" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="I32" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="J32" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="K32" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B33" t="s">
         <v>207</v>
-      </c>
-      <c r="B33" t="s">
-        <v>208</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G33" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="J33" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="J33" s="3" t="s">
+      <c r="K33" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B34" t="s">
         <v>211</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="E34" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G34" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="I34" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="J34" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J35" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="K35" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>242</v>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>257</v>
+      </c>
+      <c r="B36" t="s">
+        <v>261</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>258</v>
+      </c>
+      <c r="B37" t="s">
+        <v>264</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>259</v>
+      </c>
+      <c r="B38" t="s">
+        <v>265</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>260</v>
+      </c>
+      <c r="B39" t="s">
+        <v>268</v>
+      </c>
+      <c r="C39" t="s">
+        <v>269</v>
+      </c>
+      <c r="D39" t="s">
+        <v>270</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
